--- a/content/excel/AnVILBioCoreMinimal.xlsx
+++ b/content/excel/AnVILBioCoreMinimal.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="AnvilBioSample" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="AnvilDonor" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="AnvilFile" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="AnVILBioSample" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="AnVILDonor" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AnVILFile" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,7 +481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,8 +515,18 @@
           <t>genetic_ancestry</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>human_phenotype</t>
+        </is>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"All"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/content/excel/AnVILBioCoreMinimal.xlsx
+++ b/content/excel/AnVILBioCoreMinimal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="AnVILBioSample" sheetId="1" state="visible" r:id="rId2"/>
@@ -196,11 +196,11 @@
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.28"/>
@@ -251,11 +251,11 @@
       </c>
       <c r="G2" s="0" t="n">
         <f aca="true">_xlfn.FLOOR.MATH(RAND()*100)</f>
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="H2" s="0" t="n">
         <f aca="true">G2+_xlfn.FLOOR.MATH(RAND()*50)</f>
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>1</v>
@@ -270,11 +270,11 @@
       </c>
       <c r="G3" s="0" t="n">
         <f aca="true">_xlfn.FLOOR.MATH(RAND()*100)</f>
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H3" s="0" t="n">
         <f aca="true">G3+_xlfn.FLOOR.MATH(RAND()*50)</f>
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>1</v>
@@ -289,11 +289,11 @@
       </c>
       <c r="G4" s="0" t="n">
         <f aca="true">_xlfn.FLOOR.MATH(RAND()*100)</f>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H4" s="0" t="n">
         <f aca="true">G4+_xlfn.FLOOR.MATH(RAND()*50)</f>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>1</v>
@@ -308,11 +308,11 @@
       </c>
       <c r="G5" s="0" t="n">
         <f aca="true">_xlfn.FLOOR.MATH(RAND()*100)</f>
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="H5" s="0" t="n">
         <f aca="true">G5+_xlfn.FLOOR.MATH(RAND()*50)</f>
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>2</v>
@@ -327,11 +327,11 @@
       </c>
       <c r="G6" s="0" t="n">
         <f aca="true">_xlfn.FLOOR.MATH(RAND()*100)</f>
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="H6" s="0" t="n">
         <f aca="true">G6+_xlfn.FLOOR.MATH(RAND()*50)</f>
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>2</v>
@@ -346,11 +346,11 @@
       </c>
       <c r="G7" s="0" t="n">
         <f aca="true">_xlfn.FLOOR.MATH(RAND()*100)</f>
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H7" s="0" t="n">
         <f aca="true">G7+_xlfn.FLOOR.MATH(RAND()*50)</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>2</v>
@@ -374,11 +374,11 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.51"/>

--- a/content/excel/AnVILBioCoreMinimal.xlsx
+++ b/content/excel/AnVILBioCoreMinimal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AnVILBioSample" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
   <si>
     <t xml:space="preserve">biosample_id</t>
   </si>
@@ -51,9 +51,66 @@
     <t xml:space="preserve">donor_id_fk</t>
   </si>
   <si>
+    <t xml:space="preserve">Brain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tissue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dementia</t>
+  </si>
+  <si>
     <t xml:space="preserve">years</t>
   </si>
   <si>
+    <t xml:space="preserve">Heart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardiomyocyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hepatocyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cirrhosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alveolar cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kidney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nephron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CKD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keratinocyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psoriasis</t>
+  </si>
+  <si>
     <t xml:space="preserve">donor_id</t>
   </si>
   <si>
@@ -75,6 +132,30 @@
     <t xml:space="preserve">Homo sapiens</t>
   </si>
   <si>
+    <t xml:space="preserve">male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caucasian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP:0001250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Asian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP:0004322</t>
+  </si>
+  <si>
     <t xml:space="preserve">file_id</t>
   </si>
   <si>
@@ -97,6 +178,102 @@
   </si>
   <si>
     <t xml:space="preserve">reference_assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biosample_id_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genomic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FASTQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d41d8cd98f00b204e9800998ecf8427e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file1.fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hg19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRCh37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcriptomic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">098f6bcd4621d373cade4e832627b4f6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file2.bam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hg38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRCh38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epigenomic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500 MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5d41402abc4b2a76b9719d911017c592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file3.bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a4b7b34a0d4a8b3a0f5b4f5a5c87b788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file4.vcf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8277e0910d750195b448797616e091ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file5.gtf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIGWIG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6dcd4ce23d88e2ee95838f7b014b628e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file6.bigwig</t>
   </si>
 </sst>
 </file>
@@ -172,9 +349,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -194,10 +375,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -206,156 +387,220 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="30.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.84"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <f aca="true">_xlfn.FLOOR.MATH(RAND()*100)</f>
-        <v>73</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <f aca="true">G2+_xlfn.FLOOR.MATH(RAND()*50)</f>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="H6" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="I6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <f aca="true">_xlfn.FLOOR.MATH(RAND()*100)</f>
-        <v>43</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <f aca="true">G3+_xlfn.FLOOR.MATH(RAND()*50)</f>
-        <v>66</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <f aca="true">_xlfn.FLOOR.MATH(RAND()*100)</f>
-        <v>9</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <f aca="true">G4+_xlfn.FLOOR.MATH(RAND()*50)</f>
-        <v>44</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <f aca="true">_xlfn.FLOOR.MATH(RAND()*100)</f>
-        <v>86</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <f aca="true">G5+_xlfn.FLOOR.MATH(RAND()*50)</f>
-        <v>117</v>
-      </c>
-      <c r="I5" s="0" t="n">
+    </row>
+    <row r="7" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="I7" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <f aca="true">_xlfn.FLOOR.MATH(RAND()*100)</f>
-        <v>37</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <f aca="true">G6+_xlfn.FLOOR.MATH(RAND()*50)</f>
-        <v>58</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <f aca="true">_xlfn.FLOOR.MATH(RAND()*100)</f>
-        <v>79</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <f aca="true">G7+_xlfn.FLOOR.MATH(RAND()*50)</f>
-        <v>103</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -375,7 +620,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -388,45 +633,69 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="1" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>16</v>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F2:F1003" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F1003" type="list">
       <formula1>"All"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -446,38 +715,215 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>24</v>
+    <row r="1" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="51.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="51.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="51.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="51.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="51.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="51.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
